--- a/IPPU/A1_Outputs/A-O_Demand_COMPLETED.xlsx
+++ b/IPPU/A1_Outputs/A-O_Demand_COMPLETED.xlsx
@@ -675,55 +675,55 @@
         <v>5.0559</v>
       </c>
       <c r="R2">
-        <v>4.2073</v>
+        <v>4.2404</v>
       </c>
       <c r="S2">
-        <v>3.3585</v>
+        <v>3.4119</v>
       </c>
       <c r="T2">
-        <v>4.8961</v>
+        <v>5.0137</v>
       </c>
       <c r="U2">
-        <v>4.48</v>
+        <v>4.6246</v>
       </c>
       <c r="V2">
-        <v>4.7091</v>
+        <v>4.8611</v>
       </c>
       <c r="W2">
-        <v>4.9381</v>
+        <v>5.0975</v>
       </c>
       <c r="X2">
-        <v>5.1671</v>
+        <v>5.334</v>
       </c>
       <c r="Y2">
-        <v>5.3962</v>
+        <v>5.5704</v>
       </c>
       <c r="Z2">
-        <v>5.6252</v>
+        <v>5.8068</v>
       </c>
       <c r="AA2">
-        <v>5.8543</v>
+        <v>6.0433</v>
       </c>
       <c r="AB2">
-        <v>6.0834</v>
+        <v>6.2798</v>
       </c>
       <c r="AC2">
-        <v>6.3124</v>
+        <v>6.5162</v>
       </c>
       <c r="AD2">
-        <v>6.5415</v>
+        <v>6.7527</v>
       </c>
       <c r="AE2">
-        <v>6.7706</v>
+        <v>6.9892</v>
       </c>
       <c r="AF2">
-        <v>6.9996</v>
+        <v>7.2256</v>
       </c>
       <c r="AG2">
-        <v>7.2287</v>
+        <v>7.4621</v>
       </c>
       <c r="AH2">
-        <v>7.4578</v>
+        <v>7.6985</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -2685,13 +2685,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A274D30-6ADF-4C8C-8EAF-26A0E4D5075C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9464F164-7138-478C-96F9-9FB0EC68C62D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF842C0F-CD8A-4801-93FA-C78EF3883369}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32565E92-CB56-4922-93F8-353DFFB22787}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB38781-E9E3-4DC3-90AE-ABC645DDAB2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D6E6029-4B0F-4B2A-B9D2-D9AD2CB15CA2}"/>
 </file>